--- a/Assets/Scripts/Excel/GameDB.xlsx
+++ b/Assets/Scripts/Excel/GameDB.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="skillDatas" sheetId="1" r:id="rId1"/>
+    <sheet name="gameDatas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -396,7 +396,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -426,6 +426,9 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>

--- a/Assets/Scripts/Excel/GameDB.xlsx
+++ b/Assets/Scripts/Excel/GameDB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOON\EnderLilies\Assets\Scripts\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Desktop\eded\EnderLilies\Assets\Scripts\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8697C5-CB55-409C-9B55-A90414DE02DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gameDatas" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,13 +64,31 @@
   </si>
   <si>
     <t>Icon/Skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철구를 돌려 주위의 적을 공격합니다.
+서브 스킬은 재사용 대기 시간과 함께 사용 횟수
+제한이 있으나, 다른 스킬과 함께
+사용할 수 있습니다.
+시그리드는 백무녀 릴리를 지키고자
+성당에서 적을 기다렸으나
+영원한 전투 속에서 광기에 삼켜졌습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트테스트테테</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,9 +128,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,20 +414,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17.875" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="147.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +441,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -432,8 +458,11 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -442,6 +471,9 @@
       </c>
       <c r="D3" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
